--- a/Unity/Assets/Config/Excel/TaskConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TaskConfig.xlsx
@@ -4,11 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23070" windowHeight="10080" tabRatio="809" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="6" r:id="rId1"/>
-    <sheet name="SubTaskProto" sheetId="7" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -45,7 +44,10 @@
     <t>#Desc</t>
   </si>
   <si>
-    <t>SubTask#sep=,</t>
+    <t>TaskType</t>
+  </si>
+  <si>
+    <t>SubTask</t>
   </si>
   <si>
     <t>PreTask</t>
@@ -66,7 +68,7 @@
     <t>string</t>
   </si>
   <si>
-    <t>TaskType</t>
+    <t>list,int</t>
   </si>
   <si>
     <t>int#ref=RewardConfigCategory</t>
@@ -259,129 +261,6 @@
   </si>
   <si>
     <t>任务1025描述</t>
-  </si>
-  <si>
-    <t>子任务20001</t>
-  </si>
-  <si>
-    <t>TaskType_Sub</t>
-  </si>
-  <si>
-    <t>子任务20001描述</t>
-  </si>
-  <si>
-    <t>子任务20002</t>
-  </si>
-  <si>
-    <t>子任务20002描述</t>
-  </si>
-  <si>
-    <t>子任务20003</t>
-  </si>
-  <si>
-    <t>子任务20003描述</t>
-  </si>
-  <si>
-    <t>子任务20004</t>
-  </si>
-  <si>
-    <t>子任务20004描述</t>
-  </si>
-  <si>
-    <t>子任务20005</t>
-  </si>
-  <si>
-    <t>子任务20005描述</t>
-  </si>
-  <si>
-    <t>子任务20006</t>
-  </si>
-  <si>
-    <t>子任务20006描述</t>
-  </si>
-  <si>
-    <t>子任务20007</t>
-  </si>
-  <si>
-    <t>子任务20007描述</t>
-  </si>
-  <si>
-    <t>子任务20008</t>
-  </si>
-  <si>
-    <t>子任务20008描述</t>
-  </si>
-  <si>
-    <t>子任务20009</t>
-  </si>
-  <si>
-    <t>子任务20009描述</t>
-  </si>
-  <si>
-    <t>子任务20010</t>
-  </si>
-  <si>
-    <t>子任务20010描述</t>
-  </si>
-  <si>
-    <t>子任务20011</t>
-  </si>
-  <si>
-    <t>子任务20011描述</t>
-  </si>
-  <si>
-    <t>子任务20012</t>
-  </si>
-  <si>
-    <t>子任务20012描述</t>
-  </si>
-  <si>
-    <t>子任务20013</t>
-  </si>
-  <si>
-    <t>子任务20013描述</t>
-  </si>
-  <si>
-    <t>子任务20014</t>
-  </si>
-  <si>
-    <t>子任务20014描述</t>
-  </si>
-  <si>
-    <t>子任务20015</t>
-  </si>
-  <si>
-    <t>子任务20015描述</t>
-  </si>
-  <si>
-    <t>子任务20016</t>
-  </si>
-  <si>
-    <t>子任务20016描述</t>
-  </si>
-  <si>
-    <t>子任务20017</t>
-  </si>
-  <si>
-    <t>子任务20017描述</t>
-  </si>
-  <si>
-    <t>子任务20018</t>
-  </si>
-  <si>
-    <t>子任务20018描述</t>
-  </si>
-  <si>
-    <t>子任务20019</t>
-  </si>
-  <si>
-    <t>子任务20019描述</t>
-  </si>
-  <si>
-    <t>子任务20020</t>
-  </si>
-  <si>
-    <t>子任务20020描述</t>
   </si>
 </sst>
 </file>
@@ -753,10 +632,28 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="11">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -885,7 +782,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -897,34 +794,34 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1010,46 +907,61 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="49" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="49" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="49" applyFont="1"/>
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="50">
@@ -1377,1220 +1289,1137 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:O29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="12.75" style="5" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="5" customWidth="1"/>
-    <col min="3" max="4" width="15.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="23.125" style="5" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="11.875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="11.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="32.375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="14"/>
+    <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="4" customWidth="1"/>
+    <col min="3" max="4" width="15.875" style="4" customWidth="1"/>
+    <col min="5" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="7" style="5" customWidth="1"/>
+    <col min="8" max="11" width="7" style="4" customWidth="1"/>
+    <col min="12" max="12" width="7" style="6" customWidth="1"/>
+    <col min="13" max="13" width="11.875" style="4" customWidth="1"/>
+    <col min="14" max="14" width="11.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="32.375" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="7" t="s">
+    <row r="1" s="1" customFormat="1" spans="1:15">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="N1" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="9" t="s">
+      <c r="O1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:15">
+      <c r="A2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="D2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="13"/>
+      <c r="I2" s="13"/>
+      <c r="J2" s="13"/>
+      <c r="K2" s="13"/>
+      <c r="L2" s="19"/>
+      <c r="M2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="N2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:9">
-      <c r="A3" s="11" t="s">
+      <c r="O2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
+    </row>
+    <row r="3" s="3" customFormat="1" spans="1:15">
+      <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="7" t="s">
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="14"/>
+      <c r="N3" s="14"/>
+      <c r="O3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="7" t="s">
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:15">
+      <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="D4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="F4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="10"/>
+      <c r="I4" s="10"/>
+      <c r="J4" s="10"/>
+      <c r="K4" s="10"/>
+      <c r="L4" s="18"/>
+      <c r="M4" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="N4" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="5">
+      <c r="O4" s="8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15">
+      <c r="B5" s="4">
         <v>1001</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="5">
+      <c r="D5" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5">
+        <v>10001</v>
+      </c>
+      <c r="H5" s="4">
+        <v>10002</v>
+      </c>
+      <c r="I5" s="4">
+        <v>10004</v>
+      </c>
+      <c r="N5" s="4">
         <f>B6</f>
         <v>1002</v>
       </c>
-      <c r="I5" s="5">
+      <c r="O5" s="4">
         <v>30001</v>
       </c>
     </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="5">
+    <row r="6" spans="2:15">
+      <c r="B6" s="4">
         <v>1002</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="D6" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G6" s="5">
+        <v>10001</v>
+      </c>
+      <c r="H6" s="4">
+        <v>10002</v>
+      </c>
+      <c r="I6" s="4">
+        <v>10004</v>
+      </c>
+      <c r="M6" s="4">
         <f>B5</f>
         <v>1001</v>
       </c>
-      <c r="H6" s="5">
-        <f t="shared" ref="H6:H17" si="0">B7</f>
+      <c r="N6" s="4">
+        <f t="shared" ref="N6:N17" si="0">B7</f>
         <v>1003</v>
       </c>
-      <c r="I6" s="5">
+      <c r="O6" s="4">
         <v>30002</v>
       </c>
     </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="5">
+    <row r="7" spans="2:15">
+      <c r="B7" s="4">
         <v>1003</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="D7" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G7" s="5">
-        <f t="shared" ref="G7:G29" si="1">B6</f>
+        <v>10002</v>
+      </c>
+      <c r="H7" s="4">
+        <v>10003</v>
+      </c>
+      <c r="I7" s="4">
+        <v>10005</v>
+      </c>
+      <c r="M7" s="4">
+        <f t="shared" ref="M7:M29" si="1">B6</f>
         <v>1002</v>
       </c>
-      <c r="H7" s="5">
+      <c r="N7" s="4">
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
-      <c r="I7" s="5">
+      <c r="O7" s="4">
         <v>30003</v>
       </c>
     </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="5">
+    <row r="8" spans="2:15">
+      <c r="B8" s="4">
         <v>1004</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>34</v>
       </c>
+      <c r="D8" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G8" s="5">
+        <v>10003</v>
+      </c>
+      <c r="H8" s="4">
+        <v>10004</v>
+      </c>
+      <c r="I8" s="4">
+        <v>10006</v>
+      </c>
+      <c r="M8" s="4">
         <f t="shared" si="1"/>
         <v>1003</v>
       </c>
-      <c r="H8" s="5">
+      <c r="N8" s="4">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="I8" s="5">
+      <c r="O8" s="4">
         <v>30004</v>
       </c>
     </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="5">
+    <row r="9" spans="2:15">
+      <c r="B9" s="4">
         <v>1005</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="D9" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G9" s="5">
+        <v>10004</v>
+      </c>
+      <c r="H9" s="4">
+        <v>10005</v>
+      </c>
+      <c r="I9" s="4">
+        <v>10007</v>
+      </c>
+      <c r="M9" s="4">
         <f t="shared" si="1"/>
         <v>1004</v>
       </c>
-      <c r="H9" s="5">
+      <c r="N9" s="4">
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
-      <c r="I9" s="5">
+      <c r="O9" s="4">
         <v>30005</v>
       </c>
     </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="5">
+    <row r="10" spans="2:15">
+      <c r="B10" s="4">
         <v>1006</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>38</v>
       </c>
+      <c r="D10" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G10" s="5">
+        <v>10005</v>
+      </c>
+      <c r="H10" s="4">
+        <v>10006</v>
+      </c>
+      <c r="I10" s="4">
+        <v>10008</v>
+      </c>
+      <c r="M10" s="4">
         <f t="shared" si="1"/>
         <v>1005</v>
       </c>
-      <c r="H10" s="5">
+      <c r="N10" s="4">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-      <c r="I10" s="5">
+      <c r="O10" s="4">
         <v>30006</v>
       </c>
     </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="5">
+    <row r="11" spans="2:15">
+      <c r="B11" s="4">
         <v>1007</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>40</v>
       </c>
+      <c r="D11" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G11" s="5">
+        <v>10006</v>
+      </c>
+      <c r="H11" s="4">
+        <v>10007</v>
+      </c>
+      <c r="I11" s="4">
+        <v>10009</v>
+      </c>
+      <c r="M11" s="4">
         <f t="shared" si="1"/>
         <v>1006</v>
       </c>
-      <c r="H11" s="5">
+      <c r="N11" s="4">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
-      <c r="I11" s="5">
+      <c r="O11" s="4">
         <v>30007</v>
       </c>
     </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="5">
+    <row r="12" spans="2:15">
+      <c r="B12" s="4">
         <v>1008</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="D12" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G12" s="5">
+        <v>10007</v>
+      </c>
+      <c r="H12" s="4">
+        <v>10008</v>
+      </c>
+      <c r="I12" s="4">
+        <v>10010</v>
+      </c>
+      <c r="M12" s="4">
         <f t="shared" si="1"/>
         <v>1007</v>
       </c>
-      <c r="H12" s="5">
+      <c r="N12" s="4">
         <f t="shared" si="0"/>
         <v>1009</v>
       </c>
-      <c r="I12" s="5">
+      <c r="O12" s="4">
         <v>30008</v>
       </c>
     </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="5">
+    <row r="13" spans="2:15">
+      <c r="B13" s="4">
         <v>1009</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>44</v>
       </c>
+      <c r="D13" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G13" s="5">
+        <v>10008</v>
+      </c>
+      <c r="H13" s="4">
+        <v>10009</v>
+      </c>
+      <c r="I13" s="4">
+        <v>10011</v>
+      </c>
+      <c r="M13" s="4">
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
-      <c r="H13" s="5">
+      <c r="N13" s="4">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="I13" s="5">
+      <c r="O13" s="4">
         <v>30009</v>
       </c>
     </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="5">
+    <row r="14" spans="2:15">
+      <c r="B14" s="4">
         <v>1010</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>46</v>
       </c>
+      <c r="D14" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G14" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H14" s="4">
+        <v>10010</v>
+      </c>
+      <c r="I14" s="4">
+        <v>10012</v>
+      </c>
+      <c r="M14" s="4">
         <f t="shared" si="1"/>
         <v>1009</v>
       </c>
-      <c r="H14" s="5">
+      <c r="N14" s="4">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="I14" s="5">
+      <c r="O14" s="4">
         <v>30010</v>
       </c>
     </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="5">
+    <row r="15" spans="2:15">
+      <c r="B15" s="4">
         <v>1011</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>48</v>
       </c>
+      <c r="D15" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G15" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H15" s="4">
+        <v>10010</v>
+      </c>
+      <c r="I15" s="4">
+        <v>10012</v>
+      </c>
+      <c r="J15" s="4">
+        <v>10013</v>
+      </c>
+      <c r="M15" s="4">
         <f t="shared" si="1"/>
         <v>1010</v>
       </c>
-      <c r="H15" s="5">
+      <c r="N15" s="4">
         <f t="shared" si="0"/>
         <v>1012</v>
       </c>
-      <c r="I15" s="5">
+      <c r="O15" s="4">
         <v>30011</v>
       </c>
     </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="5">
+    <row r="16" spans="2:15">
+      <c r="B16" s="4">
         <v>1012</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>50</v>
       </c>
+      <c r="D16" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G16" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H16" s="4">
+        <v>10010</v>
+      </c>
+      <c r="I16" s="4">
+        <v>10012</v>
+      </c>
+      <c r="J16" s="4">
+        <v>10013</v>
+      </c>
+      <c r="K16" s="4">
+        <v>10014</v>
+      </c>
+      <c r="M16" s="4">
         <f t="shared" si="1"/>
         <v>1011</v>
       </c>
-      <c r="H16" s="5">
+      <c r="N16" s="4">
         <f t="shared" si="0"/>
         <v>1013</v>
       </c>
-      <c r="I16" s="5">
+      <c r="O16" s="4">
         <v>30012</v>
       </c>
     </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="5">
+    <row r="17" spans="2:15">
+      <c r="B17" s="4">
         <v>1013</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>52</v>
       </c>
+      <c r="D17" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G17" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H17" s="4">
+        <v>10010</v>
+      </c>
+      <c r="I17" s="4">
+        <v>10012</v>
+      </c>
+      <c r="J17" s="4">
+        <v>10013</v>
+      </c>
+      <c r="K17" s="4">
+        <v>10014</v>
+      </c>
+      <c r="L17" s="6">
+        <v>10015</v>
+      </c>
+      <c r="M17" s="4">
         <f t="shared" si="1"/>
         <v>1012</v>
       </c>
-      <c r="H17" s="5">
+      <c r="N17" s="4">
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
-      <c r="I17" s="5">
+      <c r="O17" s="4">
         <v>30013</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="5">
+    <row r="18" spans="2:15">
+      <c r="B18" s="4">
         <v>1014</v>
       </c>
-      <c r="C18" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>54</v>
       </c>
+      <c r="D18" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G18" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H18" s="4">
+        <v>10010</v>
+      </c>
+      <c r="I18" s="4">
+        <v>10012</v>
+      </c>
+      <c r="J18" s="4">
+        <v>10013</v>
+      </c>
+      <c r="K18" s="4">
+        <v>10014</v>
+      </c>
+      <c r="L18" s="6">
+        <v>10015</v>
+      </c>
+      <c r="M18" s="4">
         <f t="shared" si="1"/>
         <v>1013</v>
       </c>
-      <c r="H18" s="5">
-        <f t="shared" ref="H18:H28" si="2">B19</f>
+      <c r="N18" s="4">
+        <f t="shared" ref="N18:N28" si="2">B19</f>
         <v>1015</v>
       </c>
-      <c r="I18" s="5">
+      <c r="O18" s="4">
         <v>30014</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="5">
+    <row r="19" spans="2:15">
+      <c r="B19" s="4">
         <v>1015</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>56</v>
       </c>
+      <c r="D19" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G19" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H19" s="4">
+        <v>10010</v>
+      </c>
+      <c r="I19" s="4">
+        <v>10012</v>
+      </c>
+      <c r="J19" s="4">
+        <v>10013</v>
+      </c>
+      <c r="K19" s="4">
+        <v>10014</v>
+      </c>
+      <c r="L19" s="6">
+        <v>10015</v>
+      </c>
+      <c r="M19" s="4">
         <f t="shared" si="1"/>
         <v>1014</v>
       </c>
-      <c r="H19" s="5">
+      <c r="N19" s="4">
         <f t="shared" si="2"/>
         <v>1016</v>
       </c>
-      <c r="I19" s="5">
+      <c r="O19" s="4">
         <v>30015</v>
       </c>
     </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="5">
+    <row r="20" spans="2:15">
+      <c r="B20" s="4">
         <v>1016</v>
       </c>
-      <c r="C20" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>58</v>
       </c>
+      <c r="D20" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G20" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H20" s="4">
+        <v>10010</v>
+      </c>
+      <c r="I20" s="4">
+        <v>10012</v>
+      </c>
+      <c r="J20" s="4">
+        <v>10013</v>
+      </c>
+      <c r="K20" s="4">
+        <v>10014</v>
+      </c>
+      <c r="L20" s="6">
+        <v>10015</v>
+      </c>
+      <c r="M20" s="4">
         <f t="shared" si="1"/>
         <v>1015</v>
       </c>
-      <c r="H20" s="5">
+      <c r="N20" s="4">
         <f t="shared" si="2"/>
         <v>1017</v>
       </c>
-      <c r="I20" s="5">
+      <c r="O20" s="4">
         <v>30016</v>
       </c>
     </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="5">
+    <row r="21" spans="2:15">
+      <c r="B21" s="4">
         <v>1017</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="D21" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>60</v>
       </c>
+      <c r="D21" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G21" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H21" s="4">
+        <v>10010</v>
+      </c>
+      <c r="I21" s="4">
+        <v>10012</v>
+      </c>
+      <c r="J21" s="4">
+        <v>10013</v>
+      </c>
+      <c r="K21" s="4">
+        <v>10014</v>
+      </c>
+      <c r="L21" s="6">
+        <v>10015</v>
+      </c>
+      <c r="M21" s="4">
         <f t="shared" si="1"/>
         <v>1016</v>
       </c>
-      <c r="H21" s="5">
+      <c r="N21" s="4">
         <f t="shared" si="2"/>
         <v>1018</v>
       </c>
-      <c r="I21" s="5">
+      <c r="O21" s="4">
         <v>30017</v>
       </c>
     </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="5">
+    <row r="22" spans="2:15">
+      <c r="B22" s="4">
         <v>1018</v>
       </c>
-      <c r="C22" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>62</v>
       </c>
+      <c r="D22" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G22" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H22" s="4">
+        <v>10010</v>
+      </c>
+      <c r="I22" s="4">
+        <v>10012</v>
+      </c>
+      <c r="J22" s="4">
+        <v>10013</v>
+      </c>
+      <c r="K22" s="4">
+        <v>10014</v>
+      </c>
+      <c r="L22" s="6">
+        <v>10015</v>
+      </c>
+      <c r="M22" s="4">
         <f t="shared" si="1"/>
         <v>1017</v>
       </c>
-      <c r="H22" s="5">
+      <c r="N22" s="4">
         <f t="shared" si="2"/>
         <v>1019</v>
       </c>
-      <c r="I22" s="5">
+      <c r="O22" s="4">
         <v>30018</v>
       </c>
     </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="5">
+    <row r="23" spans="2:15">
+      <c r="B23" s="4">
         <v>1019</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>64</v>
       </c>
+      <c r="D23" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G23" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H23" s="4">
+        <v>10010</v>
+      </c>
+      <c r="I23" s="4">
+        <v>10012</v>
+      </c>
+      <c r="J23" s="4">
+        <v>10013</v>
+      </c>
+      <c r="K23" s="4">
+        <v>10014</v>
+      </c>
+      <c r="L23" s="6">
+        <v>10015</v>
+      </c>
+      <c r="M23" s="4">
         <f t="shared" si="1"/>
         <v>1018</v>
       </c>
-      <c r="H23" s="5">
+      <c r="N23" s="4">
         <f t="shared" si="2"/>
         <v>1020</v>
       </c>
-      <c r="I23" s="5">
+      <c r="O23" s="4">
         <v>30019</v>
       </c>
     </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="5">
+    <row r="24" spans="2:15">
+      <c r="B24" s="4">
         <v>1020</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>66</v>
       </c>
+      <c r="D24" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G24" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H24" s="4">
+        <v>10010</v>
+      </c>
+      <c r="I24" s="4">
+        <v>10012</v>
+      </c>
+      <c r="J24" s="4">
+        <v>10013</v>
+      </c>
+      <c r="K24" s="4">
+        <v>10014</v>
+      </c>
+      <c r="L24" s="6">
+        <v>10015</v>
+      </c>
+      <c r="M24" s="4">
         <f t="shared" si="1"/>
         <v>1019</v>
       </c>
-      <c r="H24" s="5">
+      <c r="N24" s="4">
         <f t="shared" si="2"/>
         <v>1021</v>
       </c>
-      <c r="I24" s="5">
+      <c r="O24" s="4">
         <v>30020</v>
       </c>
     </row>
-    <row r="25" spans="2:9">
-      <c r="B25" s="5">
+    <row r="25" spans="2:15">
+      <c r="B25" s="4">
         <v>1021</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>68</v>
       </c>
+      <c r="D25" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="G25" s="5">
+        <v>10009</v>
+      </c>
+      <c r="H25" s="4">
+        <v>10010</v>
+      </c>
+      <c r="I25" s="4">
+        <v>10012</v>
+      </c>
+      <c r="J25" s="4">
+        <v>10013</v>
+      </c>
+      <c r="K25" s="4">
+        <v>10014</v>
+      </c>
+      <c r="M25" s="4">
         <f t="shared" si="1"/>
         <v>1020</v>
       </c>
-      <c r="H25" s="5">
+      <c r="N25" s="4">
         <f t="shared" si="2"/>
         <v>1022</v>
       </c>
-      <c r="I25" s="5">
+      <c r="O25" s="4">
         <v>30020</v>
       </c>
     </row>
-    <row r="26" spans="2:9">
-      <c r="B26" s="5">
+    <row r="26" spans="2:15">
+      <c r="B26" s="4">
         <v>1022</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="G26" s="5">
+      <c r="D26" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M26" s="4">
         <f t="shared" si="1"/>
         <v>1021</v>
       </c>
-      <c r="H26" s="5">
+      <c r="N26" s="4">
         <f t="shared" si="2"/>
         <v>1023</v>
       </c>
-      <c r="I26" s="5">
+      <c r="O26" s="4">
         <v>30020</v>
       </c>
     </row>
-    <row r="27" spans="2:9">
-      <c r="B27" s="5">
+    <row r="27" spans="2:15">
+      <c r="B27" s="4">
         <v>1023</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="5" t="s">
+      <c r="C27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="5">
+      <c r="D27" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M27" s="4">
         <f t="shared" si="1"/>
         <v>1022</v>
       </c>
-      <c r="H27" s="5">
+      <c r="N27" s="4">
         <f t="shared" si="2"/>
         <v>1024</v>
       </c>
-      <c r="I27" s="5">
+      <c r="O27" s="4">
         <v>30020</v>
       </c>
     </row>
-    <row r="28" spans="2:9">
-      <c r="B28" s="5">
+    <row r="28" spans="2:15">
+      <c r="B28" s="4">
         <v>1024</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E28" s="5" t="s">
+      <c r="C28" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G28" s="5">
+      <c r="D28" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="4">
         <f t="shared" si="1"/>
         <v>1023</v>
       </c>
-      <c r="H28" s="5">
+      <c r="N28" s="4">
         <f t="shared" si="2"/>
         <v>1025</v>
       </c>
-      <c r="I28" s="5">
+      <c r="O28" s="4">
         <v>30020</v>
       </c>
     </row>
-    <row r="29" spans="2:9">
-      <c r="B29" s="5">
+    <row r="29" spans="2:15">
+      <c r="B29" s="4">
         <v>1025</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D29" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E29" s="5" t="s">
+      <c r="C29" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="G29" s="5">
+      <c r="D29" s="17" t="s">
+        <v>28</v>
+      </c>
+      <c r="E29" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="4">
         <f t="shared" si="1"/>
         <v>1024</v>
       </c>
-      <c r="I29" s="5">
+      <c r="O29" s="4">
         <v>30020</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="G1:L1"/>
+    <mergeCell ref="G2:L2"/>
+    <mergeCell ref="G3:L3"/>
+    <mergeCell ref="G4:L4"/>
+  </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:I24"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="16.875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="19.375" style="4" customWidth="1"/>
-    <col min="3" max="3" width="16.875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="20.25" style="5" customWidth="1"/>
-    <col min="5" max="5" width="19.25" style="4" customWidth="1"/>
-    <col min="6" max="7" width="17.625" style="4" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="4" customWidth="1"/>
-    <col min="9" max="9" width="32.375" style="5" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="6"/>
-  </cols>
-  <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:9">
-      <c r="A1" s="7" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:9">
-      <c r="A2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" s="3" customFormat="1" spans="1:9">
-      <c r="A3" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:9">
-      <c r="A4" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="E4" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9">
-      <c r="B5" s="4">
-        <v>20001</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E5" s="13" t="s">
-        <v>79</v>
-      </c>
-      <c r="I5" s="5">
-        <v>30001</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9">
-      <c r="B6" s="4">
-        <v>20002</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E6" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="I6" s="5">
-        <v>30002</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9">
-      <c r="B7" s="4">
-        <v>20003</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>82</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7" s="13" t="s">
-        <v>83</v>
-      </c>
-      <c r="I7" s="5">
-        <v>30003</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9">
-      <c r="B8" s="4">
-        <v>20004</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E8" s="13" t="s">
-        <v>85</v>
-      </c>
-      <c r="I8" s="5">
-        <v>30004</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9">
-      <c r="B9" s="4">
-        <v>20005</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>86</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E9" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I9" s="5">
-        <v>30005</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9">
-      <c r="B10" s="4">
-        <v>20006</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="5">
-        <v>30006</v>
-      </c>
-    </row>
-    <row r="11" spans="2:9">
-      <c r="B11" s="4">
-        <v>20007</v>
-      </c>
-      <c r="C11" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E11" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="I11" s="5">
-        <v>30007</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9">
-      <c r="B12" s="4">
-        <v>20008</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="D12" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E12" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="I12" s="5">
-        <v>30008</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9">
-      <c r="B13" s="4">
-        <v>20009</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E13" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="I13" s="5">
-        <v>30009</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9">
-      <c r="B14" s="4">
-        <v>20010</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D14" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="I14" s="5">
-        <v>30010</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9">
-      <c r="B15" s="4">
-        <v>20011</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="D15" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>99</v>
-      </c>
-      <c r="I15" s="5">
-        <v>30011</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9">
-      <c r="B16" s="4">
-        <v>20012</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D16" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="I16" s="5">
-        <v>30012</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="4">
-        <v>20013</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="D17" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="I17" s="5">
-        <v>30013</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="B18" s="4">
-        <v>20014</v>
-      </c>
-      <c r="C18" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E18" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="I18" s="5">
-        <v>30014</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="B19" s="4">
-        <v>20015</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I19" s="5">
-        <v>30015</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="B20" s="4">
-        <v>20016</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="I20" s="5">
-        <v>30016</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="B21" s="4">
-        <v>20017</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>110</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>111</v>
-      </c>
-      <c r="I21" s="5">
-        <v>30017</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="B22" s="4">
-        <v>20018</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D22" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="I22" s="5">
-        <v>30018</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="B23" s="4">
-        <v>20019</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="I23" s="5">
-        <v>30019</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9">
-      <c r="B24" s="4">
-        <v>20020</v>
-      </c>
-      <c r="C24" s="13" t="s">
-        <v>116</v>
-      </c>
-      <c r="D24" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E24" s="13" t="s">
-        <v>117</v>
-      </c>
-      <c r="I24" s="5">
-        <v>30020</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/Unity/Assets/Config/Excel/TaskConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TaskConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="23550" windowHeight="11250" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="6" r:id="rId1"/>
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:O29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O13" sqref="O13"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/Unity/Assets/Config/Excel/TaskConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TaskConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23550" windowHeight="11250" tabRatio="809"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -44,30 +44,30 @@
     <t>#Desc</t>
   </si>
   <si>
+    <t>SubTask</t>
+  </si>
+  <si>
+    <t>PreTask</t>
+  </si>
+  <si>
+    <t>NextTask</t>
+  </si>
+  <si>
+    <t>TaskReward</t>
+  </si>
+  <si>
+    <t>##type</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
     <t>TaskType</t>
   </si>
   <si>
-    <t>SubTask</t>
-  </si>
-  <si>
-    <t>PreTask</t>
-  </si>
-  <si>
-    <t>NextTask</t>
-  </si>
-  <si>
-    <t>TaskReward</t>
-  </si>
-  <si>
-    <t>##type</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
     <t>list,int</t>
   </si>
   <si>
@@ -113,7 +113,7 @@
     <t>任务1001</t>
   </si>
   <si>
-    <t>TaskType_Main</t>
+    <t>主线任务</t>
   </si>
   <si>
     <t>任务1001描述</t>
@@ -1289,28 +1289,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O29"/>
+  <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="12.75" style="4" customWidth="1"/>
     <col min="2" max="2" width="13.375" style="4" customWidth="1"/>
-    <col min="3" max="4" width="15.875" style="4" customWidth="1"/>
-    <col min="5" max="6" width="23.125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="7" style="5" customWidth="1"/>
-    <col min="8" max="11" width="7" style="4" customWidth="1"/>
-    <col min="12" max="12" width="7" style="6" customWidth="1"/>
-    <col min="13" max="13" width="11.875" style="4" customWidth="1"/>
-    <col min="14" max="14" width="11.5" style="4" customWidth="1"/>
-    <col min="15" max="15" width="32.375" style="4" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="7"/>
+    <col min="3" max="3" width="15.875" style="4" customWidth="1"/>
+    <col min="4" max="4" width="19.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="23.125" style="4" customWidth="1"/>
+    <col min="6" max="6" width="7" style="5" customWidth="1"/>
+    <col min="7" max="10" width="7" style="4" customWidth="1"/>
+    <col min="11" max="11" width="7" style="6" customWidth="1"/>
+    <col min="12" max="12" width="11.875" style="4" customWidth="1"/>
+    <col min="13" max="13" width="11.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="32.375" style="4" customWidth="1"/>
+    <col min="15" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:15">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1326,65 +1327,59 @@
       <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="9" t="s">
-        <v>6</v>
-      </c>
+      <c r="G1" s="10"/>
       <c r="H1" s="10"/>
       <c r="I1" s="10"/>
       <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
-      <c r="L1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="8" t="s">
+        <v>6</v>
+      </c>
       <c r="M1" s="8" t="s">
         <v>7</v>
       </c>
       <c r="N1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="O1" s="8" t="s">
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:14">
+      <c r="A2" s="11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:15">
-      <c r="A2" s="11" t="s">
+      <c r="B2" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="C2" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="D2" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="11" t="s">
-        <v>5</v>
-      </c>
       <c r="E2" s="11" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="12" t="s">
         <v>13</v>
       </c>
+      <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
       <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="19"/>
+      <c r="K2" s="19"/>
+      <c r="L2" s="11" t="s">
+        <v>10</v>
+      </c>
       <c r="M2" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" s="3" customFormat="1" spans="1:15">
+    <row r="3" s="3" customFormat="1" spans="1:14">
       <c r="A3" s="14" t="s">
         <v>15</v>
       </c>
@@ -1394,20 +1389,19 @@
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
-      <c r="F3" s="14"/>
-      <c r="G3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="16"/>
       <c r="H3" s="16"/>
       <c r="I3" s="16"/>
       <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="14"/>
       <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14" t="s">
+      <c r="N3" s="14" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" spans="1:15">
+    <row r="4" s="1" customFormat="1" spans="1:14">
       <c r="A4" s="8" t="s">
         <v>18</v>
       </c>
@@ -1423,28 +1417,25 @@
       <c r="E4" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="10"/>
       <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="18"/>
+      <c r="K4" s="18"/>
+      <c r="L4" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="M4" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="O4" s="8" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="2:15">
+    <row r="5" spans="2:14">
       <c r="B5" s="4">
         <v>1001</v>
       </c>
@@ -1457,27 +1448,24 @@
       <c r="E5" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="F5" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="5">
+      <c r="F5" s="5">
         <v>10001</v>
       </c>
+      <c r="G5" s="4">
+        <v>10002</v>
+      </c>
       <c r="H5" s="4">
-        <v>10002</v>
-      </c>
-      <c r="I5" s="4">
         <v>10004</v>
       </c>
-      <c r="N5" s="4">
+      <c r="M5" s="4">
         <f>B6</f>
         <v>1002</v>
       </c>
-      <c r="O5" s="4">
+      <c r="N5" s="4">
         <v>30001</v>
       </c>
     </row>
-    <row r="6" spans="2:15">
+    <row r="6" spans="2:14">
       <c r="B6" s="4">
         <v>1002</v>
       </c>
@@ -1490,31 +1478,28 @@
       <c r="E6" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F6" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="5">
+      <c r="F6" s="5">
         <v>10001</v>
       </c>
+      <c r="G6" s="4">
+        <v>10002</v>
+      </c>
       <c r="H6" s="4">
-        <v>10002</v>
-      </c>
-      <c r="I6" s="4">
         <v>10004</v>
       </c>
-      <c r="M6" s="4">
+      <c r="L6" s="4">
         <f>B5</f>
         <v>1001</v>
       </c>
+      <c r="M6" s="4">
+        <f t="shared" ref="M6:M17" si="0">B7</f>
+        <v>1003</v>
+      </c>
       <c r="N6" s="4">
-        <f t="shared" ref="N6:N17" si="0">B7</f>
-        <v>1003</v>
-      </c>
-      <c r="O6" s="4">
         <v>30002</v>
       </c>
     </row>
-    <row r="7" spans="2:15">
+    <row r="7" spans="2:14">
       <c r="B7" s="4">
         <v>1003</v>
       </c>
@@ -1527,31 +1512,28 @@
       <c r="E7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F7" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G7" s="5">
+      <c r="F7" s="5">
         <v>10002</v>
       </c>
+      <c r="G7" s="4">
+        <v>10003</v>
+      </c>
       <c r="H7" s="4">
-        <v>10003</v>
-      </c>
-      <c r="I7" s="4">
         <v>10005</v>
       </c>
+      <c r="L7" s="4">
+        <f t="shared" ref="L7:L29" si="1">B6</f>
+        <v>1002</v>
+      </c>
       <c r="M7" s="4">
-        <f t="shared" ref="M7:M29" si="1">B6</f>
-        <v>1002</v>
-      </c>
-      <c r="N7" s="4">
         <f t="shared" si="0"/>
         <v>1004</v>
       </c>
-      <c r="O7" s="4">
+      <c r="N7" s="4">
         <v>30003</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:14">
       <c r="B8" s="4">
         <v>1004</v>
       </c>
@@ -1564,31 +1546,28 @@
       <c r="E8" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G8" s="5">
+      <c r="F8" s="5">
         <v>10003</v>
       </c>
+      <c r="G8" s="4">
+        <v>10004</v>
+      </c>
       <c r="H8" s="4">
-        <v>10004</v>
-      </c>
-      <c r="I8" s="4">
         <v>10006</v>
       </c>
-      <c r="M8" s="4">
+      <c r="L8" s="4">
         <f t="shared" si="1"/>
         <v>1003</v>
       </c>
-      <c r="N8" s="4">
+      <c r="M8" s="4">
         <f t="shared" si="0"/>
         <v>1005</v>
       </c>
-      <c r="O8" s="4">
+      <c r="N8" s="4">
         <v>30004</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:14">
       <c r="B9" s="4">
         <v>1005</v>
       </c>
@@ -1601,31 +1580,28 @@
       <c r="E9" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G9" s="5">
+      <c r="F9" s="5">
         <v>10004</v>
       </c>
+      <c r="G9" s="4">
+        <v>10005</v>
+      </c>
       <c r="H9" s="4">
-        <v>10005</v>
-      </c>
-      <c r="I9" s="4">
         <v>10007</v>
       </c>
-      <c r="M9" s="4">
+      <c r="L9" s="4">
         <f t="shared" si="1"/>
         <v>1004</v>
       </c>
-      <c r="N9" s="4">
+      <c r="M9" s="4">
         <f t="shared" si="0"/>
         <v>1006</v>
       </c>
-      <c r="O9" s="4">
+      <c r="N9" s="4">
         <v>30005</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:14">
       <c r="B10" s="4">
         <v>1006</v>
       </c>
@@ -1638,31 +1614,28 @@
       <c r="E10" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="5">
+      <c r="F10" s="5">
         <v>10005</v>
       </c>
+      <c r="G10" s="4">
+        <v>10006</v>
+      </c>
       <c r="H10" s="4">
-        <v>10006</v>
-      </c>
-      <c r="I10" s="4">
         <v>10008</v>
       </c>
-      <c r="M10" s="4">
+      <c r="L10" s="4">
         <f t="shared" si="1"/>
         <v>1005</v>
       </c>
-      <c r="N10" s="4">
+      <c r="M10" s="4">
         <f t="shared" si="0"/>
         <v>1007</v>
       </c>
-      <c r="O10" s="4">
+      <c r="N10" s="4">
         <v>30006</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:14">
       <c r="B11" s="4">
         <v>1007</v>
       </c>
@@ -1675,31 +1648,28 @@
       <c r="E11" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G11" s="5">
+      <c r="F11" s="5">
         <v>10006</v>
       </c>
+      <c r="G11" s="4">
+        <v>10007</v>
+      </c>
       <c r="H11" s="4">
-        <v>10007</v>
-      </c>
-      <c r="I11" s="4">
         <v>10009</v>
       </c>
-      <c r="M11" s="4">
+      <c r="L11" s="4">
         <f t="shared" si="1"/>
         <v>1006</v>
       </c>
-      <c r="N11" s="4">
+      <c r="M11" s="4">
         <f t="shared" si="0"/>
         <v>1008</v>
       </c>
-      <c r="O11" s="4">
+      <c r="N11" s="4">
         <v>30007</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:14">
       <c r="B12" s="4">
         <v>1008</v>
       </c>
@@ -1712,31 +1682,28 @@
       <c r="E12" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="F12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G12" s="5">
+      <c r="F12" s="5">
         <v>10007</v>
       </c>
+      <c r="G12" s="4">
+        <v>10008</v>
+      </c>
       <c r="H12" s="4">
-        <v>10008</v>
-      </c>
-      <c r="I12" s="4">
         <v>10010</v>
       </c>
-      <c r="M12" s="4">
+      <c r="L12" s="4">
         <f t="shared" si="1"/>
         <v>1007</v>
       </c>
-      <c r="N12" s="4">
+      <c r="M12" s="4">
         <f t="shared" si="0"/>
         <v>1009</v>
       </c>
-      <c r="O12" s="4">
+      <c r="N12" s="4">
         <v>30008</v>
       </c>
     </row>
-    <row r="13" spans="2:15">
+    <row r="13" spans="2:14">
       <c r="B13" s="4">
         <v>1009</v>
       </c>
@@ -1749,31 +1716,28 @@
       <c r="E13" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G13" s="5">
+      <c r="F13" s="5">
         <v>10008</v>
       </c>
+      <c r="G13" s="4">
+        <v>10009</v>
+      </c>
       <c r="H13" s="4">
-        <v>10009</v>
-      </c>
-      <c r="I13" s="4">
         <v>10011</v>
       </c>
-      <c r="M13" s="4">
+      <c r="L13" s="4">
         <f t="shared" si="1"/>
         <v>1008</v>
       </c>
-      <c r="N13" s="4">
+      <c r="M13" s="4">
         <f t="shared" si="0"/>
         <v>1010</v>
       </c>
-      <c r="O13" s="4">
+      <c r="N13" s="4">
         <v>30009</v>
       </c>
     </row>
-    <row r="14" spans="2:15">
+    <row r="14" spans="2:14">
       <c r="B14" s="4">
         <v>1010</v>
       </c>
@@ -1786,31 +1750,28 @@
       <c r="E14" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G14" s="5">
+      <c r="F14" s="5">
         <v>10009</v>
       </c>
+      <c r="G14" s="4">
+        <v>10010</v>
+      </c>
       <c r="H14" s="4">
-        <v>10010</v>
-      </c>
-      <c r="I14" s="4">
         <v>10012</v>
       </c>
-      <c r="M14" s="4">
+      <c r="L14" s="4">
         <f t="shared" si="1"/>
         <v>1009</v>
       </c>
-      <c r="N14" s="4">
+      <c r="M14" s="4">
         <f t="shared" si="0"/>
         <v>1011</v>
       </c>
-      <c r="O14" s="4">
+      <c r="N14" s="4">
         <v>30010</v>
       </c>
     </row>
-    <row r="15" spans="2:15">
+    <row r="15" spans="2:14">
       <c r="B15" s="4">
         <v>1011</v>
       </c>
@@ -1823,34 +1784,31 @@
       <c r="E15" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G15" s="5">
+      <c r="F15" s="5">
         <v>10009</v>
       </c>
+      <c r="G15" s="4">
+        <v>10010</v>
+      </c>
       <c r="H15" s="4">
-        <v>10010</v>
+        <v>10012</v>
       </c>
       <c r="I15" s="4">
-        <v>10012</v>
-      </c>
-      <c r="J15" s="4">
         <v>10013</v>
       </c>
-      <c r="M15" s="4">
+      <c r="L15" s="4">
         <f t="shared" si="1"/>
         <v>1010</v>
       </c>
-      <c r="N15" s="4">
+      <c r="M15" s="4">
         <f t="shared" si="0"/>
         <v>1012</v>
       </c>
-      <c r="O15" s="4">
+      <c r="N15" s="4">
         <v>30011</v>
       </c>
     </row>
-    <row r="16" spans="2:15">
+    <row r="16" spans="2:14">
       <c r="B16" s="4">
         <v>1012</v>
       </c>
@@ -1863,37 +1821,34 @@
       <c r="E16" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="F16" s="5">
         <v>10009</v>
       </c>
+      <c r="G16" s="4">
+        <v>10010</v>
+      </c>
       <c r="H16" s="4">
-        <v>10010</v>
+        <v>10012</v>
       </c>
       <c r="I16" s="4">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="J16" s="4">
-        <v>10013</v>
-      </c>
-      <c r="K16" s="4">
         <v>10014</v>
       </c>
-      <c r="M16" s="4">
+      <c r="L16" s="4">
         <f t="shared" si="1"/>
         <v>1011</v>
       </c>
-      <c r="N16" s="4">
+      <c r="M16" s="4">
         <f t="shared" si="0"/>
         <v>1013</v>
       </c>
-      <c r="O16" s="4">
+      <c r="N16" s="4">
         <v>30012</v>
       </c>
     </row>
-    <row r="17" spans="2:15">
+    <row r="17" spans="2:14">
       <c r="B17" s="4">
         <v>1013</v>
       </c>
@@ -1906,40 +1861,37 @@
       <c r="E17" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G17" s="5">
+      <c r="F17" s="5">
         <v>10009</v>
       </c>
+      <c r="G17" s="4">
+        <v>10010</v>
+      </c>
       <c r="H17" s="4">
-        <v>10010</v>
+        <v>10012</v>
       </c>
       <c r="I17" s="4">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="J17" s="4">
-        <v>10013</v>
-      </c>
-      <c r="K17" s="4">
         <v>10014</v>
       </c>
-      <c r="L17" s="6">
+      <c r="K17" s="6">
         <v>10015</v>
       </c>
-      <c r="M17" s="4">
+      <c r="L17" s="4">
         <f t="shared" si="1"/>
         <v>1012</v>
       </c>
-      <c r="N17" s="4">
+      <c r="M17" s="4">
         <f t="shared" si="0"/>
         <v>1014</v>
       </c>
-      <c r="O17" s="4">
+      <c r="N17" s="4">
         <v>30013</v>
       </c>
     </row>
-    <row r="18" spans="2:15">
+    <row r="18" spans="2:14">
       <c r="B18" s="4">
         <v>1014</v>
       </c>
@@ -1952,40 +1904,37 @@
       <c r="E18" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="5">
+      <c r="F18" s="5">
         <v>10009</v>
       </c>
+      <c r="G18" s="4">
+        <v>10010</v>
+      </c>
       <c r="H18" s="4">
-        <v>10010</v>
+        <v>10012</v>
       </c>
       <c r="I18" s="4">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="J18" s="4">
-        <v>10013</v>
-      </c>
-      <c r="K18" s="4">
         <v>10014</v>
       </c>
-      <c r="L18" s="6">
+      <c r="K18" s="6">
         <v>10015</v>
       </c>
-      <c r="M18" s="4">
+      <c r="L18" s="4">
         <f t="shared" si="1"/>
         <v>1013</v>
       </c>
+      <c r="M18" s="4">
+        <f t="shared" ref="M18:M28" si="2">B19</f>
+        <v>1015</v>
+      </c>
       <c r="N18" s="4">
-        <f t="shared" ref="N18:N28" si="2">B19</f>
-        <v>1015</v>
-      </c>
-      <c r="O18" s="4">
         <v>30014</v>
       </c>
     </row>
-    <row r="19" spans="2:15">
+    <row r="19" spans="2:14">
       <c r="B19" s="4">
         <v>1015</v>
       </c>
@@ -1998,40 +1947,37 @@
       <c r="E19" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G19" s="5">
+      <c r="F19" s="5">
         <v>10009</v>
       </c>
+      <c r="G19" s="4">
+        <v>10010</v>
+      </c>
       <c r="H19" s="4">
-        <v>10010</v>
+        <v>10012</v>
       </c>
       <c r="I19" s="4">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="J19" s="4">
-        <v>10013</v>
-      </c>
-      <c r="K19" s="4">
         <v>10014</v>
       </c>
-      <c r="L19" s="6">
+      <c r="K19" s="6">
         <v>10015</v>
       </c>
-      <c r="M19" s="4">
+      <c r="L19" s="4">
         <f t="shared" si="1"/>
         <v>1014</v>
       </c>
-      <c r="N19" s="4">
+      <c r="M19" s="4">
         <f t="shared" si="2"/>
         <v>1016</v>
       </c>
-      <c r="O19" s="4">
+      <c r="N19" s="4">
         <v>30015</v>
       </c>
     </row>
-    <row r="20" spans="2:15">
+    <row r="20" spans="2:14">
       <c r="B20" s="4">
         <v>1016</v>
       </c>
@@ -2044,40 +1990,37 @@
       <c r="E20" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="F20" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="5">
+      <c r="F20" s="5">
         <v>10009</v>
       </c>
+      <c r="G20" s="4">
+        <v>10010</v>
+      </c>
       <c r="H20" s="4">
-        <v>10010</v>
+        <v>10012</v>
       </c>
       <c r="I20" s="4">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="J20" s="4">
-        <v>10013</v>
-      </c>
-      <c r="K20" s="4">
         <v>10014</v>
       </c>
-      <c r="L20" s="6">
+      <c r="K20" s="6">
         <v>10015</v>
       </c>
-      <c r="M20" s="4">
+      <c r="L20" s="4">
         <f t="shared" si="1"/>
         <v>1015</v>
       </c>
-      <c r="N20" s="4">
+      <c r="M20" s="4">
         <f t="shared" si="2"/>
         <v>1017</v>
       </c>
-      <c r="O20" s="4">
+      <c r="N20" s="4">
         <v>30016</v>
       </c>
     </row>
-    <row r="21" spans="2:15">
+    <row r="21" spans="2:14">
       <c r="B21" s="4">
         <v>1017</v>
       </c>
@@ -2090,40 +2033,37 @@
       <c r="E21" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="F21" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G21" s="5">
+      <c r="F21" s="5">
         <v>10009</v>
       </c>
+      <c r="G21" s="4">
+        <v>10010</v>
+      </c>
       <c r="H21" s="4">
-        <v>10010</v>
+        <v>10012</v>
       </c>
       <c r="I21" s="4">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="J21" s="4">
-        <v>10013</v>
-      </c>
-      <c r="K21" s="4">
         <v>10014</v>
       </c>
-      <c r="L21" s="6">
+      <c r="K21" s="6">
         <v>10015</v>
       </c>
-      <c r="M21" s="4">
+      <c r="L21" s="4">
         <f t="shared" si="1"/>
         <v>1016</v>
       </c>
-      <c r="N21" s="4">
+      <c r="M21" s="4">
         <f t="shared" si="2"/>
         <v>1018</v>
       </c>
-      <c r="O21" s="4">
+      <c r="N21" s="4">
         <v>30017</v>
       </c>
     </row>
-    <row r="22" spans="2:15">
+    <row r="22" spans="2:14">
       <c r="B22" s="4">
         <v>1018</v>
       </c>
@@ -2136,40 +2076,37 @@
       <c r="E22" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G22" s="5">
+      <c r="F22" s="5">
         <v>10009</v>
       </c>
+      <c r="G22" s="4">
+        <v>10010</v>
+      </c>
       <c r="H22" s="4">
-        <v>10010</v>
+        <v>10012</v>
       </c>
       <c r="I22" s="4">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="J22" s="4">
-        <v>10013</v>
-      </c>
-      <c r="K22" s="4">
         <v>10014</v>
       </c>
-      <c r="L22" s="6">
+      <c r="K22" s="6">
         <v>10015</v>
       </c>
-      <c r="M22" s="4">
+      <c r="L22" s="4">
         <f t="shared" si="1"/>
         <v>1017</v>
       </c>
-      <c r="N22" s="4">
+      <c r="M22" s="4">
         <f t="shared" si="2"/>
         <v>1019</v>
       </c>
-      <c r="O22" s="4">
+      <c r="N22" s="4">
         <v>30018</v>
       </c>
     </row>
-    <row r="23" spans="2:15">
+    <row r="23" spans="2:14">
       <c r="B23" s="4">
         <v>1019</v>
       </c>
@@ -2182,40 +2119,37 @@
       <c r="E23" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="F23" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G23" s="5">
+      <c r="F23" s="5">
         <v>10009</v>
       </c>
+      <c r="G23" s="4">
+        <v>10010</v>
+      </c>
       <c r="H23" s="4">
-        <v>10010</v>
+        <v>10012</v>
       </c>
       <c r="I23" s="4">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="J23" s="4">
-        <v>10013</v>
-      </c>
-      <c r="K23" s="4">
         <v>10014</v>
       </c>
-      <c r="L23" s="6">
+      <c r="K23" s="6">
         <v>10015</v>
       </c>
-      <c r="M23" s="4">
+      <c r="L23" s="4">
         <f t="shared" si="1"/>
         <v>1018</v>
       </c>
-      <c r="N23" s="4">
+      <c r="M23" s="4">
         <f t="shared" si="2"/>
         <v>1020</v>
       </c>
-      <c r="O23" s="4">
+      <c r="N23" s="4">
         <v>30019</v>
       </c>
     </row>
-    <row r="24" spans="2:15">
+    <row r="24" spans="2:14">
       <c r="B24" s="4">
         <v>1020</v>
       </c>
@@ -2228,40 +2162,37 @@
       <c r="E24" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G24" s="5">
+      <c r="F24" s="5">
         <v>10009</v>
       </c>
+      <c r="G24" s="4">
+        <v>10010</v>
+      </c>
       <c r="H24" s="4">
-        <v>10010</v>
+        <v>10012</v>
       </c>
       <c r="I24" s="4">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="J24" s="4">
-        <v>10013</v>
-      </c>
-      <c r="K24" s="4">
         <v>10014</v>
       </c>
-      <c r="L24" s="6">
+      <c r="K24" s="6">
         <v>10015</v>
       </c>
-      <c r="M24" s="4">
+      <c r="L24" s="4">
         <f t="shared" si="1"/>
         <v>1019</v>
       </c>
-      <c r="N24" s="4">
+      <c r="M24" s="4">
         <f t="shared" si="2"/>
         <v>1021</v>
       </c>
-      <c r="O24" s="4">
+      <c r="N24" s="4">
         <v>30020</v>
       </c>
     </row>
-    <row r="25" spans="2:15">
+    <row r="25" spans="2:14">
       <c r="B25" s="4">
         <v>1021</v>
       </c>
@@ -2274,37 +2205,34 @@
       <c r="E25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="F25" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="G25" s="5">
+      <c r="F25" s="5">
         <v>10009</v>
       </c>
+      <c r="G25" s="4">
+        <v>10010</v>
+      </c>
       <c r="H25" s="4">
-        <v>10010</v>
+        <v>10012</v>
       </c>
       <c r="I25" s="4">
-        <v>10012</v>
+        <v>10013</v>
       </c>
       <c r="J25" s="4">
-        <v>10013</v>
-      </c>
-      <c r="K25" s="4">
         <v>10014</v>
       </c>
-      <c r="M25" s="4">
+      <c r="L25" s="4">
         <f t="shared" si="1"/>
         <v>1020</v>
       </c>
-      <c r="N25" s="4">
+      <c r="M25" s="4">
         <f t="shared" si="2"/>
         <v>1022</v>
       </c>
-      <c r="O25" s="4">
+      <c r="N25" s="4">
         <v>30020</v>
       </c>
     </row>
-    <row r="26" spans="2:15">
+    <row r="26" spans="2:14">
       <c r="B26" s="4">
         <v>1022</v>
       </c>
@@ -2317,22 +2245,19 @@
       <c r="E26" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M26" s="4">
+      <c r="L26" s="4">
         <f t="shared" si="1"/>
         <v>1021</v>
       </c>
-      <c r="N26" s="4">
+      <c r="M26" s="4">
         <f t="shared" si="2"/>
         <v>1023</v>
       </c>
-      <c r="O26" s="4">
+      <c r="N26" s="4">
         <v>30020</v>
       </c>
     </row>
-    <row r="27" spans="2:15">
+    <row r="27" spans="2:14">
       <c r="B27" s="4">
         <v>1023</v>
       </c>
@@ -2345,22 +2270,19 @@
       <c r="E27" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="F27" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M27" s="4">
+      <c r="L27" s="4">
         <f t="shared" si="1"/>
         <v>1022</v>
       </c>
-      <c r="N27" s="4">
+      <c r="M27" s="4">
         <f t="shared" si="2"/>
         <v>1024</v>
       </c>
-      <c r="O27" s="4">
+      <c r="N27" s="4">
         <v>30020</v>
       </c>
     </row>
-    <row r="28" spans="2:15">
+    <row r="28" spans="2:14">
       <c r="B28" s="4">
         <v>1024</v>
       </c>
@@ -2373,22 +2295,19 @@
       <c r="E28" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="F28" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" s="4">
+      <c r="L28" s="4">
         <f t="shared" si="1"/>
         <v>1023</v>
       </c>
-      <c r="N28" s="4">
+      <c r="M28" s="4">
         <f t="shared" si="2"/>
         <v>1025</v>
       </c>
-      <c r="O28" s="4">
+      <c r="N28" s="4">
         <v>30020</v>
       </c>
     </row>
-    <row r="29" spans="2:15">
+    <row r="29" spans="2:14">
       <c r="B29" s="4">
         <v>1025</v>
       </c>
@@ -2401,23 +2320,20 @@
       <c r="E29" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F29" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="M29" s="4">
+      <c r="L29" s="4">
         <f t="shared" si="1"/>
         <v>1024</v>
       </c>
-      <c r="O29" s="4">
+      <c r="N29" s="4">
         <v>30020</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="G1:L1"/>
-    <mergeCell ref="G2:L2"/>
-    <mergeCell ref="G3:L3"/>
-    <mergeCell ref="G4:L4"/>
+    <mergeCell ref="F1:K1"/>
+    <mergeCell ref="F2:K2"/>
+    <mergeCell ref="F3:K3"/>
+    <mergeCell ref="F4:K4"/>
   </mergeCells>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/Unity/Assets/Config/Excel/TaskConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TaskConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="6" r:id="rId1"/>
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>

--- a/Unity/Assets/Config/Excel/TaskConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TaskConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25140" windowHeight="10065" tabRatio="809"/>
+    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
   </bookViews>
   <sheets>
     <sheet name="TaskProto" sheetId="6" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
   <si>
     <t>##var</t>
   </si>
@@ -41,7 +41,7 @@
     <t>Type</t>
   </si>
   <si>
-    <t>#Desc</t>
+    <t>Desc</t>
   </si>
   <si>
     <t>SubTask</t>
@@ -62,7 +62,7 @@
     <t>int</t>
   </si>
   <si>
-    <t>string</t>
+    <t>text</t>
   </si>
   <si>
     <t>TaskType</t>
@@ -110,157 +110,157 @@
     <t>任务奖励</t>
   </si>
   <si>
-    <t>任务1001</t>
+    <t>taskname_1001</t>
   </si>
   <si>
     <t>主线任务</t>
   </si>
   <si>
-    <t>任务1001描述</t>
-  </si>
-  <si>
-    <t>任务1002</t>
-  </si>
-  <si>
-    <t>任务1002描述</t>
-  </si>
-  <si>
-    <t>任务1003</t>
-  </si>
-  <si>
-    <t>任务1003描述</t>
-  </si>
-  <si>
-    <t>任务1004</t>
-  </si>
-  <si>
-    <t>任务1004描述</t>
-  </si>
-  <si>
-    <t>任务1005</t>
-  </si>
-  <si>
-    <t>任务1005描述</t>
-  </si>
-  <si>
-    <t>任务1006</t>
-  </si>
-  <si>
-    <t>任务1006描述</t>
-  </si>
-  <si>
-    <t>任务1007</t>
-  </si>
-  <si>
-    <t>任务1007描述</t>
-  </si>
-  <si>
-    <t>任务1008</t>
-  </si>
-  <si>
-    <t>任务1008描述</t>
-  </si>
-  <si>
-    <t>任务1009</t>
-  </si>
-  <si>
-    <t>任务1009描述</t>
-  </si>
-  <si>
-    <t>任务1010</t>
-  </si>
-  <si>
-    <t>任务1010描述</t>
-  </si>
-  <si>
-    <t>任务1011</t>
-  </si>
-  <si>
-    <t>任务1011描述</t>
-  </si>
-  <si>
-    <t>任务1012</t>
-  </si>
-  <si>
-    <t>任务1012描述</t>
-  </si>
-  <si>
-    <t>任务1013</t>
-  </si>
-  <si>
-    <t>任务1013描述</t>
-  </si>
-  <si>
-    <t>任务1014</t>
-  </si>
-  <si>
-    <t>任务1014描述</t>
-  </si>
-  <si>
-    <t>任务1015</t>
-  </si>
-  <si>
-    <t>任务1015描述</t>
-  </si>
-  <si>
-    <t>任务1016</t>
-  </si>
-  <si>
-    <t>任务1016描述</t>
-  </si>
-  <si>
-    <t>任务1017</t>
-  </si>
-  <si>
-    <t>任务1017描述</t>
-  </si>
-  <si>
-    <t>任务1018</t>
-  </si>
-  <si>
-    <t>任务1018描述</t>
-  </si>
-  <si>
-    <t>任务1019</t>
-  </si>
-  <si>
-    <t>任务1019描述</t>
-  </si>
-  <si>
-    <t>任务1020</t>
-  </si>
-  <si>
-    <t>任务1020描述</t>
-  </si>
-  <si>
-    <t>任务1021</t>
-  </si>
-  <si>
-    <t>任务1021描述</t>
-  </si>
-  <si>
-    <t>任务1022</t>
-  </si>
-  <si>
-    <t>任务1022描述</t>
-  </si>
-  <si>
-    <t>任务1023</t>
-  </si>
-  <si>
-    <t>任务1023描述</t>
-  </si>
-  <si>
-    <t>任务1024</t>
-  </si>
-  <si>
-    <t>任务1024描述</t>
-  </si>
-  <si>
-    <t>任务1025</t>
-  </si>
-  <si>
-    <t>任务1025描述</t>
+    <t>taskdesc_1001</t>
+  </si>
+  <si>
+    <t>taskname_1002</t>
+  </si>
+  <si>
+    <t>taskdesc_1002</t>
+  </si>
+  <si>
+    <t>taskname_1003</t>
+  </si>
+  <si>
+    <t>taskdesc_1003</t>
+  </si>
+  <si>
+    <t>taskname_1004</t>
+  </si>
+  <si>
+    <t>taskdesc_1004</t>
+  </si>
+  <si>
+    <t>taskname_1005</t>
+  </si>
+  <si>
+    <t>taskdesc_1005</t>
+  </si>
+  <si>
+    <t>taskname_1006</t>
+  </si>
+  <si>
+    <t>taskdesc_1006</t>
+  </si>
+  <si>
+    <t>taskname_1007</t>
+  </si>
+  <si>
+    <t>taskdesc_1007</t>
+  </si>
+  <si>
+    <t>taskname_1008</t>
+  </si>
+  <si>
+    <t>taskdesc_1008</t>
+  </si>
+  <si>
+    <t>taskname_1009</t>
+  </si>
+  <si>
+    <t>taskdesc_1009</t>
+  </si>
+  <si>
+    <t>taskname_1010</t>
+  </si>
+  <si>
+    <t>taskdesc_1010</t>
+  </si>
+  <si>
+    <t>taskname_1011</t>
+  </si>
+  <si>
+    <t>taskdesc_1011</t>
+  </si>
+  <si>
+    <t>taskname_1012</t>
+  </si>
+  <si>
+    <t>taskdesc_1012</t>
+  </si>
+  <si>
+    <t>taskname_1013</t>
+  </si>
+  <si>
+    <t>taskdesc_1013</t>
+  </si>
+  <si>
+    <t>taskname_1014</t>
+  </si>
+  <si>
+    <t>taskdesc_1014</t>
+  </si>
+  <si>
+    <t>taskname_1015</t>
+  </si>
+  <si>
+    <t>taskdesc_1015</t>
+  </si>
+  <si>
+    <t>taskname_1016</t>
+  </si>
+  <si>
+    <t>taskdesc_1016</t>
+  </si>
+  <si>
+    <t>taskname_1017</t>
+  </si>
+  <si>
+    <t>taskdesc_1017</t>
+  </si>
+  <si>
+    <t>taskname_1018</t>
+  </si>
+  <si>
+    <t>taskdesc_1018</t>
+  </si>
+  <si>
+    <t>taskname_1019</t>
+  </si>
+  <si>
+    <t>taskdesc_1019</t>
+  </si>
+  <si>
+    <t>taskname_1020</t>
+  </si>
+  <si>
+    <t>taskdesc_1020</t>
+  </si>
+  <si>
+    <t>taskname_1021</t>
+  </si>
+  <si>
+    <t>taskdesc_1021</t>
+  </si>
+  <si>
+    <t>taskname_1022</t>
+  </si>
+  <si>
+    <t>taskdesc_1022</t>
+  </si>
+  <si>
+    <t>taskname_1023</t>
+  </si>
+  <si>
+    <t>taskdesc_1023</t>
+  </si>
+  <si>
+    <t>taskname_1024</t>
+  </si>
+  <si>
+    <t>taskdesc_1024</t>
+  </si>
+  <si>
+    <t>taskname_1025</t>
+  </si>
+  <si>
+    <t>taskdesc_1025</t>
   </si>
 </sst>
 </file>
@@ -1292,7 +1292,7 @@
   <dimension ref="A1:N29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1388,7 +1388,9 @@
         <v>16</v>
       </c>
       <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
+      <c r="E3" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
       <c r="H3" s="16"/>

--- a/Unity/Assets/Config/Excel/TaskConfig.xlsx
+++ b/Unity/Assets/Config/Excel/TaskConfig.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255" tabRatio="809"/>
+    <workbookView windowWidth="24645" windowHeight="10455" tabRatio="809"/>
   </bookViews>
   <sheets>
-    <sheet name="TaskProto" sheetId="6" r:id="rId1"/>
+    <sheet name="主线任务" sheetId="6" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="83">
   <si>
     <t>##var</t>
   </si>
@@ -56,6 +56,12 @@
     <t>TaskReward</t>
   </si>
   <si>
+    <t>AcceptNpcConfig</t>
+  </si>
+  <si>
+    <t>CompleteNpcConfig</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -74,6 +80,9 @@
     <t>int#ref=RewardConfigCategory</t>
   </si>
   <si>
+    <t>int#ref=UnitConfigCategory</t>
+  </si>
+  <si>
     <t>##group</t>
   </si>
   <si>
@@ -108,6 +117,12 @@
   </si>
   <si>
     <t>任务奖励</t>
+  </si>
+  <si>
+    <t>接取任务NPC</t>
+  </si>
+  <si>
+    <t>交付任务NPC</t>
   </si>
   <si>
     <t>taskname_1001</t>
@@ -1289,10 +1304,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N29"/>
+  <dimension ref="A1:P29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -1308,10 +1323,11 @@
     <col min="12" max="12" width="11.875" style="4" customWidth="1"/>
     <col min="13" max="13" width="11.5" style="4" customWidth="1"/>
     <col min="14" max="14" width="32.375" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="9" style="7"/>
+    <col min="15" max="16" width="28.875" style="7" customWidth="1"/>
+    <col min="17" max="16384" width="9" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:14">
+    <row r="1" s="1" customFormat="1" spans="1:16">
       <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
@@ -1344,25 +1360,31 @@
       <c r="N1" s="8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" s="2" customFormat="1" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" s="2" customFormat="1" spans="1:16">
       <c r="A2" s="11" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
@@ -1370,26 +1392,32 @@
       <c r="J2" s="13"/>
       <c r="K2" s="19"/>
       <c r="L2" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>14</v>
+        <v>16</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="3" s="3" customFormat="1" spans="1:14">
       <c r="A3" s="14" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" s="14"/>
       <c r="E3" s="14" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="16"/>
@@ -1400,27 +1428,27 @@
       <c r="L3" s="14"/>
       <c r="M3" s="14"/>
       <c r="N3" s="14" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="4" s="1" customFormat="1" spans="1:14">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" s="1" customFormat="1" spans="1:16">
       <c r="A4" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -1428,27 +1456,33 @@
       <c r="J4" s="10"/>
       <c r="K4" s="18"/>
       <c r="L4" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="2:14">
+        <v>29</v>
+      </c>
+      <c r="O4" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="5" spans="2:16">
       <c r="B5" s="4">
         <v>1001</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D5" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F5" s="5">
         <v>10001</v>
@@ -1466,19 +1500,25 @@
       <c r="N5" s="4">
         <v>30001</v>
       </c>
-    </row>
-    <row r="6" spans="2:14">
+      <c r="O5" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P5" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:16">
       <c r="B6" s="4">
         <v>1002</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D6" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="F6" s="5">
         <v>10001</v>
@@ -1500,19 +1540,25 @@
       <c r="N6" s="4">
         <v>30002</v>
       </c>
-    </row>
-    <row r="7" spans="2:14">
+      <c r="O6" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P6" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:16">
       <c r="B7" s="4">
         <v>1003</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D7" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="F7" s="5">
         <v>10002</v>
@@ -1534,19 +1580,25 @@
       <c r="N7" s="4">
         <v>30003</v>
       </c>
-    </row>
-    <row r="8" spans="2:14">
+      <c r="O7" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P7" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="8" spans="2:16">
       <c r="B8" s="4">
         <v>1004</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D8" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="F8" s="5">
         <v>10003</v>
@@ -1568,19 +1620,25 @@
       <c r="N8" s="4">
         <v>30004</v>
       </c>
-    </row>
-    <row r="9" spans="2:14">
+      <c r="O8" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P8" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="9" spans="2:16">
       <c r="B9" s="4">
         <v>1005</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D9" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="F9" s="5">
         <v>10004</v>
@@ -1602,19 +1660,25 @@
       <c r="N9" s="4">
         <v>30005</v>
       </c>
-    </row>
-    <row r="10" spans="2:14">
+      <c r="O9" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P9" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="10" spans="2:16">
       <c r="B10" s="4">
         <v>1006</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="D10" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="F10" s="5">
         <v>10005</v>
@@ -1636,19 +1700,25 @@
       <c r="N10" s="4">
         <v>30006</v>
       </c>
-    </row>
-    <row r="11" spans="2:14">
+      <c r="O10" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P10" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="11" spans="2:16">
       <c r="B11" s="4">
         <v>1007</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="F11" s="5">
         <v>10006</v>
@@ -1670,19 +1740,25 @@
       <c r="N11" s="4">
         <v>30007</v>
       </c>
-    </row>
-    <row r="12" spans="2:14">
+      <c r="O11" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P11" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="12" spans="2:16">
       <c r="B12" s="4">
         <v>1008</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D12" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F12" s="5">
         <v>10007</v>
@@ -1704,19 +1780,25 @@
       <c r="N12" s="4">
         <v>30008</v>
       </c>
-    </row>
-    <row r="13" spans="2:14">
+      <c r="O12" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P12" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="13" spans="2:16">
       <c r="B13" s="4">
         <v>1009</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F13" s="5">
         <v>10008</v>
@@ -1738,19 +1820,25 @@
       <c r="N13" s="4">
         <v>30009</v>
       </c>
-    </row>
-    <row r="14" spans="2:14">
+      <c r="O13" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P13" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="14" spans="2:16">
       <c r="B14" s="4">
         <v>1010</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="F14" s="5">
         <v>10009</v>
@@ -1772,19 +1860,25 @@
       <c r="N14" s="4">
         <v>30010</v>
       </c>
-    </row>
-    <row r="15" spans="2:14">
+      <c r="O14" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P14" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="15" spans="2:16">
       <c r="B15" s="4">
         <v>1011</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="F15" s="5">
         <v>10009</v>
@@ -1809,19 +1903,25 @@
       <c r="N15" s="4">
         <v>30011</v>
       </c>
-    </row>
-    <row r="16" spans="2:14">
+      <c r="O15" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P15" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="16" spans="2:16">
       <c r="B16" s="4">
         <v>1012</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="F16" s="5">
         <v>10009</v>
@@ -1849,19 +1949,25 @@
       <c r="N16" s="4">
         <v>30012</v>
       </c>
-    </row>
-    <row r="17" spans="2:14">
+      <c r="O16" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P16" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16">
       <c r="B17" s="4">
         <v>1013</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F17" s="5">
         <v>10009</v>
@@ -1892,19 +1998,25 @@
       <c r="N17" s="4">
         <v>30013</v>
       </c>
-    </row>
-    <row r="18" spans="2:14">
+      <c r="O17" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P17" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16">
       <c r="B18" s="4">
         <v>1014</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F18" s="5">
         <v>10009</v>
@@ -1935,19 +2047,25 @@
       <c r="N18" s="4">
         <v>30014</v>
       </c>
-    </row>
-    <row r="19" spans="2:14">
+      <c r="O18" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P18" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16">
       <c r="B19" s="4">
         <v>1015</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E19" s="4" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="F19" s="5">
         <v>10009</v>
@@ -1978,19 +2096,25 @@
       <c r="N19" s="4">
         <v>30015</v>
       </c>
-    </row>
-    <row r="20" spans="2:14">
+      <c r="O19" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P19" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16">
       <c r="B20" s="4">
         <v>1016</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E20" s="4" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="F20" s="5">
         <v>10009</v>
@@ -2021,19 +2145,25 @@
       <c r="N20" s="4">
         <v>30016</v>
       </c>
-    </row>
-    <row r="21" spans="2:14">
+      <c r="O20" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P20" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16">
       <c r="B21" s="4">
         <v>1017</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E21" s="4" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="F21" s="5">
         <v>10009</v>
@@ -2064,19 +2194,25 @@
       <c r="N21" s="4">
         <v>30017</v>
       </c>
-    </row>
-    <row r="22" spans="2:14">
+      <c r="O21" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P21" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16">
       <c r="B22" s="4">
         <v>1018</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E22" s="4" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="F22" s="5">
         <v>10009</v>
@@ -2107,19 +2243,25 @@
       <c r="N22" s="4">
         <v>30018</v>
       </c>
-    </row>
-    <row r="23" spans="2:14">
+      <c r="O22" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P22" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16">
       <c r="B23" s="4">
         <v>1019</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E23" s="4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F23" s="5">
         <v>10009</v>
@@ -2150,19 +2292,25 @@
       <c r="N23" s="4">
         <v>30019</v>
       </c>
-    </row>
-    <row r="24" spans="2:14">
+      <c r="O23" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P23" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16">
       <c r="B24" s="4">
         <v>1020</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="F24" s="5">
         <v>10009</v>
@@ -2193,19 +2341,25 @@
       <c r="N24" s="4">
         <v>30020</v>
       </c>
-    </row>
-    <row r="25" spans="2:14">
+      <c r="O24" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P24" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16">
       <c r="B25" s="4">
         <v>1021</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="F25" s="5">
         <v>10009</v>
@@ -2233,19 +2387,25 @@
       <c r="N25" s="4">
         <v>30020</v>
       </c>
-    </row>
-    <row r="26" spans="2:14">
+      <c r="O25" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P25" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16">
       <c r="B26" s="4">
         <v>1022</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="L26" s="4">
         <f t="shared" si="1"/>
@@ -2258,19 +2418,25 @@
       <c r="N26" s="4">
         <v>30020</v>
       </c>
-    </row>
-    <row r="27" spans="2:14">
+      <c r="O26" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P26" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="27" spans="2:16">
       <c r="B27" s="4">
         <v>1023</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="L27" s="4">
         <f t="shared" si="1"/>
@@ -2283,19 +2449,25 @@
       <c r="N27" s="4">
         <v>30020</v>
       </c>
-    </row>
-    <row r="28" spans="2:14">
+      <c r="O27" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P27" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="28" spans="2:16">
       <c r="B28" s="4">
         <v>1024</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L28" s="4">
         <f t="shared" si="1"/>
@@ -2308,19 +2480,25 @@
       <c r="N28" s="4">
         <v>30020</v>
       </c>
-    </row>
-    <row r="29" spans="2:14">
+      <c r="O28" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P28" s="7">
+        <v>40001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:16">
       <c r="B29" s="4">
         <v>1025</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="L29" s="4">
         <f t="shared" si="1"/>
@@ -2328,6 +2506,12 @@
       </c>
       <c r="N29" s="4">
         <v>30020</v>
+      </c>
+      <c r="O29" s="7">
+        <v>40001</v>
+      </c>
+      <c r="P29" s="7">
+        <v>40001</v>
       </c>
     </row>
   </sheetData>
